--- a/published-data/fonds-solidarite/fds-2020-06-24/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-06-24/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="356">
   <si>
     <t>dispositif</t>
   </si>
@@ -124,156 +124,165 @@
     <t>12</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>56</t>
+    <t>47</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>107</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
     <t>117</t>
   </si>
   <si>
@@ -283,22 +292,13 @@
     <t>519</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>67</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>130</t>
   </si>
   <si>
-    <t>241</t>
+    <t>242</t>
   </si>
   <si>
     <t>65</t>
@@ -307,606 +307,615 @@
     <t>38</t>
   </si>
   <si>
-    <t>399</t>
+    <t>119</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>1616</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>163620.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>297886.40</t>
+  </si>
+  <si>
+    <t>760930.82</t>
+  </si>
+  <si>
+    <t>93000.00</t>
+  </si>
+  <si>
+    <t>1283384.04</t>
+  </si>
+  <si>
+    <t>45600.00</t>
+  </si>
+  <si>
+    <t>23500.00</t>
+  </si>
+  <si>
+    <t>46500.00</t>
+  </si>
+  <si>
+    <t>278500.00</t>
+  </si>
+  <si>
+    <t>120400.00</t>
+  </si>
+  <si>
+    <t>148390.00</t>
+  </si>
+  <si>
+    <t>32093.58</t>
+  </si>
+  <si>
+    <t>149924.23</t>
+  </si>
+  <si>
+    <t>329000.00</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>67391.77</t>
+  </si>
+  <si>
+    <t>94500.00</t>
+  </si>
+  <si>
+    <t>216825.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>410165.66</t>
+  </si>
+  <si>
+    <t>62000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>47000.00</t>
+  </si>
+  <si>
+    <t>71000.00</t>
+  </si>
+  <si>
+    <t>31500.00</t>
+  </si>
+  <si>
+    <t>74000.00</t>
+  </si>
+  <si>
+    <t>79945.00</t>
+  </si>
+  <si>
+    <t>368500.00</t>
+  </si>
+  <si>
+    <t>21500.00</t>
+  </si>
+  <si>
+    <t>641633.00</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>93500.00</t>
+  </si>
+  <si>
+    <t>47500.00</t>
+  </si>
+  <si>
+    <t>52850.00</t>
+  </si>
+  <si>
+    <t>62500.00</t>
+  </si>
+  <si>
+    <t>139893.00</t>
+  </si>
+  <si>
+    <t>20500.00</t>
+  </si>
+  <si>
+    <t>54000.00</t>
+  </si>
+  <si>
+    <t>118753.26</t>
+  </si>
+  <si>
+    <t>234468.33</t>
+  </si>
+  <si>
+    <t>38100.00</t>
+  </si>
+  <si>
+    <t>480000.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>23000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>48000.00</t>
+  </si>
+  <si>
+    <t>122500.00</t>
+  </si>
+  <si>
+    <t>24500.00</t>
+  </si>
+  <si>
+    <t>27000.00</t>
+  </si>
+  <si>
+    <t>82500.00</t>
+  </si>
+  <si>
+    <t>127000.00</t>
+  </si>
+  <si>
+    <t>239336.66</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>92500.00</t>
+  </si>
+  <si>
+    <t>22500.00</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>80500.00</t>
+  </si>
+  <si>
+    <t>163987.00</t>
+  </si>
+  <si>
+    <t>375402.00</t>
+  </si>
+  <si>
+    <t>39500.00</t>
+  </si>
+  <si>
+    <t>714000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>97200.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>78500.00</t>
+  </si>
+  <si>
+    <t>157500.00</t>
+  </si>
+  <si>
+    <t>101495.14</t>
+  </si>
+  <si>
+    <t>96000.00</t>
+  </si>
+  <si>
+    <t>179000.00</t>
+  </si>
+  <si>
+    <t>189000.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>64500.00</t>
+  </si>
+  <si>
+    <t>110500.00</t>
+  </si>
+  <si>
+    <t>28200.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>29500.00</t>
+  </si>
+  <si>
+    <t>69500.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>66000.00</t>
+  </si>
+  <si>
+    <t>130377.00</t>
+  </si>
+  <si>
+    <t>489500.00</t>
+  </si>
+  <si>
+    <t>73000.00</t>
+  </si>
+  <si>
+    <t>670500.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>60500.00</t>
+  </si>
+  <si>
+    <t>136000.00</t>
+  </si>
+  <si>
+    <t>73500.00</t>
+  </si>
+  <si>
+    <t>71500.00</t>
+  </si>
+  <si>
+    <t>177500.00</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>237000.00</t>
+  </si>
+  <si>
+    <t>31000.00</t>
+  </si>
+  <si>
+    <t>137500.00</t>
+  </si>
+  <si>
+    <t>85500.00</t>
+  </si>
+  <si>
+    <t>56500.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>88500.00</t>
+  </si>
+  <si>
+    <t>31941.00</t>
+  </si>
+  <si>
+    <t>33500.00</t>
+  </si>
+  <si>
+    <t>103119.00</t>
+  </si>
+  <si>
+    <t>439621.81</t>
+  </si>
+  <si>
+    <t>25500.00</t>
+  </si>
+  <si>
+    <t>70862.79</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>43500.00</t>
+  </si>
+  <si>
+    <t>77500.00</t>
+  </si>
+  <si>
+    <t>116000.00</t>
+  </si>
+  <si>
+    <t>115500.00</t>
+  </si>
+  <si>
+    <t>120653.50</t>
+  </si>
+  <si>
+    <t>257500.00</t>
+  </si>
+  <si>
+    <t>789142.00</t>
+  </si>
+  <si>
+    <t>51500.00</t>
+  </si>
+  <si>
+    <t>1190613.00</t>
+  </si>
+  <si>
+    <t>41500.00</t>
+  </si>
+  <si>
+    <t>309461.56</t>
+  </si>
+  <si>
+    <t>111500.00</t>
+  </si>
+  <si>
+    <t>127500.00</t>
+  </si>
+  <si>
+    <t>26500.00</t>
+  </si>
+  <si>
+    <t>145883.20</t>
+  </si>
+  <si>
+    <t>230159.77</t>
+  </si>
+  <si>
+    <t>92000.00</t>
+  </si>
+  <si>
+    <t>109500.00</t>
+  </si>
+  <si>
+    <t>308120.07</t>
+  </si>
+  <si>
+    <t>792828.00</t>
+  </si>
+  <si>
+    <t>64000.00</t>
+  </si>
+  <si>
+    <t>1364130.76</t>
+  </si>
+  <si>
+    <t>19500.00</t>
+  </si>
+  <si>
+    <t>93400.00</t>
+  </si>
+  <si>
+    <t>291000.00</t>
+  </si>
+  <si>
+    <t>77000.00</t>
+  </si>
+  <si>
+    <t>107500.00</t>
+  </si>
+  <si>
+    <t>161000.00</t>
+  </si>
+  <si>
+    <t>295000.00</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>131000.00</t>
+  </si>
+  <si>
+    <t>347405.00</t>
+  </si>
+  <si>
+    <t>646309.01</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>162272.09</t>
+  </si>
+  <si>
+    <t>40587.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>91000.00</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>175538.00</t>
+  </si>
+  <si>
+    <t>315700.00</t>
+  </si>
+  <si>
+    <t>1043500.00</t>
+  </si>
+  <si>
+    <t>135500.00</t>
+  </si>
+  <si>
+    <t>1905820.00</t>
+  </si>
+  <si>
+    <t>63500.00</t>
+  </si>
+  <si>
+    <t>144000.00</t>
+  </si>
+  <si>
+    <t>326777.50</t>
+  </si>
+  <si>
+    <t>230700.00</t>
+  </si>
+  <si>
+    <t>151500.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>176700.00</t>
+  </si>
+  <si>
+    <t>397000.00</t>
+  </si>
+  <si>
+    <t>26000.00</t>
+  </si>
+  <si>
+    <t>392070.00</t>
+  </si>
+  <si>
+    <t>1085300.00</t>
+  </si>
+  <si>
+    <t>3328842.03</t>
+  </si>
+  <si>
+    <t>2536672.41</t>
+  </si>
+  <si>
+    <t>4319965.00</t>
+  </si>
+  <si>
+    <t>530500.00</t>
+  </si>
+  <si>
+    <t>228500.00</t>
+  </si>
+  <si>
+    <t>419000.00</t>
+  </si>
+  <si>
+    <t>1708830.00</t>
+  </si>
+  <si>
+    <t>777226.00</t>
+  </si>
+  <si>
+    <t>580280.00</t>
+  </si>
+  <si>
+    <t>258000.00</t>
+  </si>
+  <si>
+    <t>523280.00</t>
+  </si>
+  <si>
+    <t>1471000.00</t>
+  </si>
+  <si>
+    <t>84</t>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>436</t>
-  </si>
-  <si>
-    <t>1312</t>
-  </si>
-  <si>
-    <t>1190</t>
-  </si>
-  <si>
-    <t>1616</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>665</t>
-  </si>
-  <si>
-    <t>34000.00</t>
-  </si>
-  <si>
-    <t>163620.00</t>
-  </si>
-  <si>
-    <t>7500.00</t>
-  </si>
-  <si>
-    <t>297886.40</t>
-  </si>
-  <si>
-    <t>760930.82</t>
-  </si>
-  <si>
-    <t>93000.00</t>
-  </si>
-  <si>
-    <t>1283384.04</t>
-  </si>
-  <si>
-    <t>45600.00</t>
-  </si>
-  <si>
-    <t>23500.00</t>
-  </si>
-  <si>
-    <t>46500.00</t>
-  </si>
-  <si>
-    <t>278500.00</t>
-  </si>
-  <si>
-    <t>120400.00</t>
-  </si>
-  <si>
-    <t>148390.00</t>
-  </si>
-  <si>
-    <t>32093.58</t>
-  </si>
-  <si>
-    <t>149924.23</t>
-  </si>
-  <si>
-    <t>329000.00</t>
-  </si>
-  <si>
-    <t>13500.00</t>
-  </si>
-  <si>
-    <t>67391.77</t>
-  </si>
-  <si>
-    <t>94500.00</t>
-  </si>
-  <si>
-    <t>216825.00</t>
-  </si>
-  <si>
-    <t>22000.00</t>
-  </si>
-  <si>
-    <t>410165.66</t>
-  </si>
-  <si>
-    <t>62000.00</t>
-  </si>
-  <si>
-    <t>18000.00</t>
-  </si>
-  <si>
-    <t>6000.00</t>
-  </si>
-  <si>
-    <t>47000.00</t>
-  </si>
-  <si>
-    <t>71000.00</t>
-  </si>
-  <si>
-    <t>31500.00</t>
-  </si>
-  <si>
-    <t>74000.00</t>
-  </si>
-  <si>
-    <t>76445.00</t>
-  </si>
-  <si>
-    <t>358500.00</t>
-  </si>
-  <si>
-    <t>21500.00</t>
-  </si>
-  <si>
-    <t>637633.00</t>
-  </si>
-  <si>
-    <t>11500.00</t>
-  </si>
-  <si>
-    <t>14000.00</t>
-  </si>
-  <si>
-    <t>16000.00</t>
-  </si>
-  <si>
-    <t>93500.00</t>
-  </si>
-  <si>
-    <t>45500.00</t>
-  </si>
-  <si>
-    <t>52850.00</t>
-  </si>
-  <si>
-    <t>62500.00</t>
-  </si>
-  <si>
-    <t>139893.00</t>
-  </si>
-  <si>
-    <t>20500.00</t>
-  </si>
-  <si>
-    <t>54000.00</t>
-  </si>
-  <si>
-    <t>118753.26</t>
-  </si>
-  <si>
-    <t>232468.33</t>
-  </si>
-  <si>
-    <t>38100.00</t>
-  </si>
-  <si>
-    <t>480000.00</t>
-  </si>
-  <si>
-    <t>9500.00</t>
-  </si>
-  <si>
-    <t>23000.00</t>
-  </si>
-  <si>
-    <t>8000.00</t>
-  </si>
-  <si>
-    <t>48000.00</t>
-  </si>
-  <si>
-    <t>122500.00</t>
-  </si>
-  <si>
-    <t>17000.00</t>
-  </si>
-  <si>
-    <t>68000.00</t>
-  </si>
-  <si>
-    <t>102500.00</t>
-  </si>
-  <si>
-    <t>198836.66</t>
-  </si>
-  <si>
-    <t>75000.00</t>
-  </si>
-  <si>
-    <t>18500.00</t>
-  </si>
-  <si>
-    <t>17500.00</t>
-  </si>
-  <si>
-    <t>19000.00</t>
-  </si>
-  <si>
-    <t>80500.00</t>
-  </si>
-  <si>
-    <t>163987.00</t>
-  </si>
-  <si>
-    <t>375402.00</t>
-  </si>
-  <si>
-    <t>39500.00</t>
-  </si>
-  <si>
-    <t>714000.00</t>
-  </si>
-  <si>
-    <t>12000.00</t>
-  </si>
-  <si>
-    <t>15000.00</t>
-  </si>
-  <si>
-    <t>22500.00</t>
-  </si>
-  <si>
-    <t>97200.00</t>
-  </si>
-  <si>
-    <t>70000.00</t>
-  </si>
-  <si>
-    <t>157500.00</t>
-  </si>
-  <si>
-    <t>10000.00</t>
-  </si>
-  <si>
-    <t>101495.14</t>
-  </si>
-  <si>
-    <t>96000.00</t>
-  </si>
-  <si>
-    <t>179000.00</t>
-  </si>
-  <si>
-    <t>189000.00</t>
-  </si>
-  <si>
-    <t>13000.00</t>
-  </si>
-  <si>
-    <t>64500.00</t>
-  </si>
-  <si>
-    <t>110500.00</t>
-  </si>
-  <si>
-    <t>28200.00</t>
-  </si>
-  <si>
-    <t>24000.00</t>
-  </si>
-  <si>
-    <t>29500.00</t>
-  </si>
-  <si>
-    <t>69500.00</t>
-  </si>
-  <si>
-    <t>16500.00</t>
-  </si>
-  <si>
-    <t>66000.00</t>
-  </si>
-  <si>
-    <t>130377.00</t>
-  </si>
-  <si>
-    <t>489500.00</t>
-  </si>
-  <si>
-    <t>73000.00</t>
-  </si>
-  <si>
-    <t>662500.00</t>
-  </si>
-  <si>
-    <t>9000.00</t>
-  </si>
-  <si>
-    <t>60500.00</t>
-  </si>
-  <si>
-    <t>136000.00</t>
-  </si>
-  <si>
-    <t>73500.00</t>
-  </si>
-  <si>
-    <t>177500.00</t>
-  </si>
-  <si>
-    <t>100000.00</t>
-  </si>
-  <si>
-    <t>237000.00</t>
-  </si>
-  <si>
-    <t>31000.00</t>
-  </si>
-  <si>
-    <t>137500.00</t>
-  </si>
-  <si>
-    <t>85500.00</t>
-  </si>
-  <si>
-    <t>56500.00</t>
-  </si>
-  <si>
-    <t>21000.00</t>
-  </si>
-  <si>
-    <t>88500.00</t>
-  </si>
-  <si>
-    <t>31941.00</t>
-  </si>
-  <si>
-    <t>33500.00</t>
-  </si>
-  <si>
-    <t>101119.00</t>
-  </si>
-  <si>
-    <t>312500.00</t>
-  </si>
-  <si>
-    <t>432621.81</t>
-  </si>
-  <si>
-    <t>66862.79</t>
-  </si>
-  <si>
-    <t>30000.00</t>
-  </si>
-  <si>
-    <t>110000.00</t>
-  </si>
-  <si>
-    <t>115500.00</t>
-  </si>
-  <si>
-    <t>120653.50</t>
-  </si>
-  <si>
-    <t>257500.00</t>
-  </si>
-  <si>
-    <t>789142.00</t>
-  </si>
-  <si>
-    <t>51500.00</t>
-  </si>
-  <si>
-    <t>1190613.00</t>
-  </si>
-  <si>
-    <t>41500.00</t>
-  </si>
-  <si>
-    <t>309461.56</t>
-  </si>
-  <si>
-    <t>111500.00</t>
-  </si>
-  <si>
-    <t>127500.00</t>
-  </si>
-  <si>
-    <t>26500.00</t>
-  </si>
-  <si>
-    <t>145883.20</t>
-  </si>
-  <si>
-    <t>230159.77</t>
-  </si>
-  <si>
-    <t>92000.00</t>
-  </si>
-  <si>
-    <t>109500.00</t>
-  </si>
-  <si>
-    <t>308120.07</t>
-  </si>
-  <si>
-    <t>792828.00</t>
-  </si>
-  <si>
-    <t>64000.00</t>
-  </si>
-  <si>
-    <t>1364130.76</t>
-  </si>
-  <si>
-    <t>19500.00</t>
-  </si>
-  <si>
-    <t>93400.00</t>
-  </si>
-  <si>
-    <t>291000.00</t>
-  </si>
-  <si>
-    <t>77000.00</t>
-  </si>
-  <si>
-    <t>107500.00</t>
-  </si>
-  <si>
-    <t>43500.00</t>
-  </si>
-  <si>
-    <t>161000.00</t>
-  </si>
-  <si>
-    <t>295000.00</t>
-  </si>
-  <si>
-    <t>52000.00</t>
-  </si>
-  <si>
-    <t>131000.00</t>
-  </si>
-  <si>
-    <t>347405.00</t>
-  </si>
-  <si>
-    <t>644309.01</t>
-  </si>
-  <si>
-    <t>11000.00</t>
-  </si>
-  <si>
-    <t>28000.00</t>
-  </si>
-  <si>
-    <t>162272.09</t>
-  </si>
-  <si>
-    <t>40587.00</t>
-  </si>
-  <si>
-    <t>20000.00</t>
-  </si>
-  <si>
-    <t>91000.00</t>
-  </si>
-  <si>
-    <t>44000.00</t>
-  </si>
-  <si>
-    <t>172038.00</t>
-  </si>
-  <si>
-    <t>310200.00</t>
-  </si>
-  <si>
-    <t>1027500.00</t>
-  </si>
-  <si>
-    <t>130000.00</t>
-  </si>
-  <si>
-    <t>1884320.00</t>
-  </si>
-  <si>
-    <t>63500.00</t>
-  </si>
-  <si>
-    <t>33000.00</t>
-  </si>
-  <si>
-    <t>144000.00</t>
-  </si>
-  <si>
-    <t>322777.50</t>
-  </si>
-  <si>
-    <t>230700.00</t>
-  </si>
-  <si>
-    <t>149500.00</t>
-  </si>
-  <si>
-    <t>55000.00</t>
-  </si>
-  <si>
-    <t>174700.00</t>
-  </si>
-  <si>
-    <t>389000.00</t>
-  </si>
-  <si>
-    <t>26000.00</t>
-  </si>
-  <si>
-    <t>392070.00</t>
-  </si>
-  <si>
-    <t>1085300.00</t>
-  </si>
-  <si>
-    <t>3328842.03</t>
-  </si>
-  <si>
-    <t>2536672.41</t>
-  </si>
-  <si>
-    <t>4319965.00</t>
-  </si>
-  <si>
-    <t>530500.00</t>
-  </si>
-  <si>
-    <t>228500.00</t>
-  </si>
-  <si>
-    <t>419000.00</t>
-  </si>
-  <si>
-    <t>1708830.00</t>
-  </si>
-  <si>
-    <t>777226.00</t>
-  </si>
-  <si>
-    <t>580280.00</t>
-  </si>
-  <si>
-    <t>258000.00</t>
-  </si>
-  <si>
-    <t>523280.00</t>
-  </si>
-  <si>
-    <t>1471000.00</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
@@ -914,9 +923,6 @@
   </si>
   <si>
     <t>03</t>
-  </si>
-  <si>
-    <t>32</t>
   </si>
   <si>
     <t>02</t>
@@ -1476,19 +1482,19 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1502,19 +1508,19 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1528,19 +1534,19 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1554,19 +1560,19 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1580,19 +1586,19 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1606,19 +1612,19 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1632,19 +1638,19 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1658,19 +1664,19 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1684,19 +1690,19 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1710,19 +1716,19 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F11" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G11" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1736,19 +1742,19 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1762,19 +1768,19 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G13" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H13" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1788,19 +1794,19 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F14" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G14" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H14" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1814,19 +1820,19 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G15" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H15" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1840,19 +1846,19 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F16" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G16" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H16" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1866,19 +1872,19 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G17" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H17" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1892,19 +1898,19 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G18" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H18" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1918,19 +1924,19 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1944,19 +1950,19 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H20" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1970,19 +1976,19 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G21" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H21" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1996,19 +2002,19 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G22" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H22" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2022,19 +2028,19 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G23" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H23" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2048,19 +2054,19 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G24" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H24" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2074,19 +2080,19 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G25" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H25" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2100,19 +2106,19 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G26" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H26" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2126,19 +2132,19 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G27" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H27" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2152,19 +2158,19 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G28" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2178,19 +2184,19 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G29" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H29" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2204,19 +2210,19 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F30" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G30" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H30" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2230,19 +2236,19 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F31" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G31" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H31" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2256,19 +2262,19 @@
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F32" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G32" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H32" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2282,19 +2288,19 @@
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G33" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H33" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2308,19 +2314,19 @@
         <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G34" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H34" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2334,19 +2340,19 @@
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G35" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H35" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2360,19 +2366,19 @@
         <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G36" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H36" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2386,19 +2392,19 @@
         <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G37" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H37" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2412,19 +2418,19 @@
         <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G38" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H38" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2438,19 +2444,19 @@
         <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G39" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H39" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2461,22 +2467,22 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G40" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H40" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2487,22 +2493,22 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G41" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H41" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2513,22 +2519,22 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F42" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G42" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H42" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2539,22 +2545,22 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="F43" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G43" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H43" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2568,19 +2574,19 @@
         <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
         <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G44" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H44" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2594,19 +2600,19 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E45" t="s">
         <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G45" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H45" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2617,22 +2623,22 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
         <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G46" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H46" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2643,22 +2649,22 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E47" t="s">
         <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G47" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H47" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2672,19 +2678,19 @@
         <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E48" t="s">
         <v>27</v>
       </c>
       <c r="F48" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G48" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H48" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2695,22 +2701,22 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E49" t="s">
         <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G49" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H49" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2724,19 +2730,19 @@
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E50" t="s">
         <v>27</v>
       </c>
       <c r="F50" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G50" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H50" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2747,22 +2753,22 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E51" t="s">
         <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G51" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H51" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2776,19 +2782,19 @@
         <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E52" t="s">
         <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G52" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H52" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2802,19 +2808,19 @@
         <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E53" t="s">
         <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G53" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H53" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2828,19 +2834,19 @@
         <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E54" t="s">
         <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G54" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H54" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2854,19 +2860,19 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E55" t="s">
         <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G55" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H55" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2877,22 +2883,22 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E56" t="s">
         <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G56" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H56" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2903,22 +2909,22 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E57" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F57" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G57" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H57" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2929,22 +2935,22 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E58" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F58" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G58" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H58" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2955,22 +2961,22 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D59" t="s">
         <v>172</v>
       </c>
       <c r="E59" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F59" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G59" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H59" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2981,22 +2987,22 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D60" t="s">
         <v>173</v>
       </c>
       <c r="E60" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F60" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G60" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H60" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3007,22 +3013,22 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D61" t="s">
         <v>174</v>
       </c>
       <c r="E61" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F61" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G61" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H61" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3033,22 +3039,22 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E62" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F62" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G62" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H62" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3059,22 +3065,22 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="E63" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F63" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G63" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H63" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3085,22 +3091,22 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D64" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E64" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F64" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G64" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H64" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3111,22 +3117,22 @@
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E65" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F65" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G65" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H65" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3137,22 +3143,22 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E66" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F66" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G66" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H66" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3163,22 +3169,22 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E67" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F67" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G67" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H67" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3192,19 +3198,19 @@
         <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F68" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G68" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H68" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3215,22 +3221,22 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E69" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F69" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G69" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H69" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3241,22 +3247,22 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E70" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F70" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G70" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H70" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3267,22 +3273,22 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E71" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F71" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G71" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H71" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3293,22 +3299,22 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E72" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F72" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H72" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3319,22 +3325,22 @@
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E73" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F73" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G73" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H73" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3348,19 +3354,19 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E74" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F74" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G74" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H74" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3374,19 +3380,19 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E75" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F75" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G75" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H75" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3397,22 +3403,22 @@
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E76" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F76" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G76" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H76" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3423,22 +3429,22 @@
         <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D77" t="s">
         <v>187</v>
       </c>
       <c r="E77" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F77" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G77" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H77" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3452,19 +3458,19 @@
         <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F78" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G78" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H78" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3475,22 +3481,22 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D79" t="s">
         <v>188</v>
       </c>
       <c r="E79" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F79" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G79" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H79" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3504,19 +3510,19 @@
         <v>42</v>
       </c>
       <c r="D80" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E80" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F80" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G80" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H80" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3527,22 +3533,22 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D81" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E81" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F81" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G81" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H81" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3553,22 +3559,22 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D82" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E82" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F82" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G82" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H82" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3582,19 +3588,19 @@
         <v>40</v>
       </c>
       <c r="D83" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E83" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F83" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G83" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H83" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3608,19 +3614,19 @@
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E84" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F84" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G84" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H84" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3634,19 +3640,19 @@
         <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E85" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F85" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G85" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H85" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3657,22 +3663,22 @@
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D86" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E86" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F86" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G86" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H86" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3686,19 +3692,19 @@
         <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E87" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F87" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G87" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H87" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3709,22 +3715,22 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E88" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F88" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G88" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H88" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3735,22 +3741,22 @@
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D89" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E89" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F89" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G89" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H89" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3764,19 +3770,19 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E90" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F90" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G90" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H90" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3790,19 +3796,19 @@
         <v>40</v>
       </c>
       <c r="D91" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E91" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F91" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G91" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H91" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3813,22 +3819,22 @@
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D92" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E92" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F92" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G92" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H92" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3839,22 +3845,22 @@
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D93" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E93" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F93" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G93" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H93" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3868,19 +3874,19 @@
         <v>35</v>
       </c>
       <c r="D94" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E94" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F94" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G94" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H94" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3891,22 +3897,22 @@
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D95" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E95" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F95" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G95" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H95" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3920,19 +3926,19 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E96" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F96" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G96" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H96" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3946,19 +3952,19 @@
         <v>34</v>
       </c>
       <c r="D97" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E97" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F97" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G97" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H97" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3969,22 +3975,22 @@
         <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D98" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E98" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F98" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G98" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H98" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3998,19 +4004,19 @@
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E99" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F99" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G99" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H99" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4024,19 +4030,19 @@
         <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E100" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F100" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G100" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H100" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4050,19 +4056,19 @@
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E101" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F101" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G101" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H101" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4076,19 +4082,19 @@
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E102" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F102" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G102" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H102" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4102,19 +4108,19 @@
         <v>41</v>
       </c>
       <c r="D103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E103" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F103" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G103" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H103" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4128,19 +4134,19 @@
         <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E104" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F104" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G104" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H104" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4154,19 +4160,19 @@
         <v>19</v>
       </c>
       <c r="D105" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E105" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F105" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G105" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H105" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4177,22 +4183,22 @@
         <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D106" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E106" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F106" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G106" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H106" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4203,22 +4209,22 @@
         <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D107" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E107" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F107" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G107" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H107" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4229,22 +4235,22 @@
         <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D108" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E108" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F108" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G108" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H108" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4255,22 +4261,22 @@
         <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D109" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E109" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F109" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G109" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H109" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4284,19 +4290,19 @@
         <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E110" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F110" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G110" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H110" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4310,19 +4316,19 @@
         <v>38</v>
       </c>
       <c r="D111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E111" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F111" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G111" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H111" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4336,19 +4342,19 @@
         <v>32</v>
       </c>
       <c r="D112" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E112" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F112" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G112" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H112" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4359,22 +4365,22 @@
         <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D113" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E113" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F113" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G113" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H113" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4385,22 +4391,22 @@
         <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D114" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E114" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F114" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G114" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H114" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4414,19 +4420,19 @@
         <v>28</v>
       </c>
       <c r="D115" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E115" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F115" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G115" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H115" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4440,19 +4446,19 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E116" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F116" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G116" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H116" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4463,22 +4469,22 @@
         <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D117" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E117" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F117" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G117" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H117" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4489,22 +4495,22 @@
         <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D118" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E118" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F118" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G118" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H118" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4518,19 +4524,19 @@
         <v>41</v>
       </c>
       <c r="D119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E119" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F119" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G119" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H119" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4541,22 +4547,22 @@
         <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D120" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E120" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F120" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G120" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H120" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4567,22 +4573,22 @@
         <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E121" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F121" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G121" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H121" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4596,19 +4602,19 @@
         <v>70</v>
       </c>
       <c r="D122" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E122" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F122" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G122" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H122" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4622,19 +4628,19 @@
         <v>71</v>
       </c>
       <c r="D123" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E123" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F123" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G123" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H123" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4648,19 +4654,19 @@
         <v>72</v>
       </c>
       <c r="D124" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E124" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F124" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G124" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H124" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4674,19 +4680,19 @@
         <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E125" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F125" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G125" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H125" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4700,19 +4706,19 @@
         <v>40</v>
       </c>
       <c r="D126" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E126" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F126" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G126" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H126" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4726,19 +4732,19 @@
         <v>40</v>
       </c>
       <c r="D127" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E127" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F127" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G127" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H127" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4752,19 +4758,19 @@
         <v>73</v>
       </c>
       <c r="D128" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E128" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F128" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G128" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H128" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4775,22 +4781,22 @@
         <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D129" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E129" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F129" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G129" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H129" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4804,19 +4810,19 @@
         <v>42</v>
       </c>
       <c r="D130" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E130" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F130" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G130" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H130" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4830,19 +4836,19 @@
         <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E131" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F131" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G131" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H131" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4853,22 +4859,22 @@
         <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D132" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E132" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F132" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G132" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H132" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4879,22 +4885,22 @@
         <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D133" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E133" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F133" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G133" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H133" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4908,19 +4914,19 @@
         <v>35</v>
       </c>
       <c r="D134" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E134" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G134" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H134" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4934,19 +4940,19 @@
         <v>74</v>
       </c>
       <c r="D135" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E135" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G135" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H135" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4957,22 +4963,22 @@
         <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D136" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E136" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G136" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H136" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4983,22 +4989,22 @@
         <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D137" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="E137" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G137" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H137" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5012,19 +5018,19 @@
         <v>42</v>
       </c>
       <c r="D138" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E138" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G138" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H138" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5035,22 +5041,22 @@
         <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D139" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E139" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G139" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H139" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5061,22 +5067,22 @@
         <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D140" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="E140" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G140" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H140" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5090,19 +5096,19 @@
         <v>41</v>
       </c>
       <c r="D141" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E141" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G141" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H141" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5116,19 +5122,19 @@
         <v>41</v>
       </c>
       <c r="D142" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E142" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G142" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H142" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5139,22 +5145,22 @@
         <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D143" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E143" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G143" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H143" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5168,19 +5174,19 @@
         <v>35</v>
       </c>
       <c r="D144" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E144" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G144" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H144" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5191,22 +5197,22 @@
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="E145" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F145" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G145" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H145" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5220,19 +5226,19 @@
         <v>26</v>
       </c>
       <c r="D146" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E146" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G146" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H146" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5243,22 +5249,22 @@
         <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D147" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="E147" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G147" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H147" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5269,22 +5275,22 @@
         <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D148" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E148" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F148" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G148" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H148" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5295,22 +5301,22 @@
         <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D149" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E149" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F149" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G149" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H149" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5321,22 +5327,22 @@
         <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D150" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E150" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F150" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G150" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H150" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5347,22 +5353,22 @@
         <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D151" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E151" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F151" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G151" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H151" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5373,22 +5379,22 @@
         <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D152" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E152" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F152" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G152" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H152" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5402,19 +5408,19 @@
         <v>33</v>
       </c>
       <c r="D153" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E153" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F153" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G153" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H153" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5425,22 +5431,22 @@
         <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D154" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E154" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F154" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G154" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H154" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5454,19 +5460,19 @@
         <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E155" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F155" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G155" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H155" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5480,19 +5486,19 @@
         <v>26</v>
       </c>
       <c r="D156" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E156" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F156" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G156" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H156" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5506,19 +5512,19 @@
         <v>32</v>
       </c>
       <c r="D157" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E157" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F157" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G157" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H157" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5529,22 +5535,22 @@
         <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D158" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E158" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F158" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G158" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H158" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5555,22 +5561,22 @@
         <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D159" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E159" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F159" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G159" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H159" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5581,22 +5587,22 @@
         <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D160" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E160" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F160" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G160" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H160" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5610,19 +5616,19 @@
         <v>18</v>
       </c>
       <c r="D161" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E161" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F161" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G161" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H161" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5633,22 +5639,22 @@
         <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D162" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E162" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F162" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G162" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H162" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5659,22 +5665,22 @@
         <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D163" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E163" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F163" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G163" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H163" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5685,22 +5691,22 @@
         <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="D164" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E164" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G164" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H164" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5711,22 +5717,22 @@
         <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D165" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E165" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G165" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H165" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5737,22 +5743,22 @@
         <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D166" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E166" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G166" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H166" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5763,22 +5769,22 @@
         <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D167" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E167" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G167" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H167" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5789,22 +5795,22 @@
         <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D168" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E168" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F168" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G168" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H168" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5815,22 +5821,22 @@
         <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D169" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E169" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F169" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G169" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H169" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5844,19 +5850,19 @@
         <v>71</v>
       </c>
       <c r="D170" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E170" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F170" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G170" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H170" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5867,22 +5873,22 @@
         <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D171" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E171" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F171" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G171" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H171" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5893,22 +5899,22 @@
         <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D172" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E172" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F172" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G172" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H172" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5919,22 +5925,22 @@
         <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D173" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E173" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F173" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G173" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H173" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5948,19 +5954,19 @@
         <v>34</v>
       </c>
       <c r="D174" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E174" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F174" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G174" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H174" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5971,22 +5977,22 @@
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D175" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E175" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F175" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G175" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H175" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6000,19 +6006,19 @@
         <v>17</v>
       </c>
       <c r="D176" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="E176" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F176" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G176" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H176" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6023,22 +6029,22 @@
         <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D177" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E177" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F177" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G177" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H177" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6049,22 +6055,22 @@
         <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="D178" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E178" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F178" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G178" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H178" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6078,19 +6084,19 @@
         <v>35</v>
       </c>
       <c r="D179" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E179" t="s">
         <v>21</v>
       </c>
       <c r="F179" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G179" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H179" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6101,22 +6107,22 @@
         <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D180" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E180" t="s">
         <v>21</v>
       </c>
       <c r="F180" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G180" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H180" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6127,22 +6133,22 @@
         <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D181" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E181" t="s">
         <v>21</v>
       </c>
       <c r="F181" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G181" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H181" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6156,19 +6162,19 @@
         <v>93</v>
       </c>
       <c r="D182" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E182" t="s">
         <v>21</v>
       </c>
       <c r="F182" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G182" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H182" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6182,19 +6188,19 @@
         <v>18</v>
       </c>
       <c r="D183" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E183" t="s">
         <v>21</v>
       </c>
       <c r="F183" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G183" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H183" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6208,19 +6214,19 @@
         <v>94</v>
       </c>
       <c r="D184" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E184" t="s">
         <v>21</v>
       </c>
       <c r="F184" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G184" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H184" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6234,19 +6240,19 @@
         <v>41</v>
       </c>
       <c r="D185" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E185" t="s">
         <v>21</v>
       </c>
       <c r="F185" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G185" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H185" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6260,19 +6266,19 @@
         <v>40</v>
       </c>
       <c r="D186" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E186" t="s">
         <v>21</v>
       </c>
       <c r="F186" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G186" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H186" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6286,19 +6292,19 @@
         <v>71</v>
       </c>
       <c r="D187" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E187" t="s">
         <v>21</v>
       </c>
       <c r="F187" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G187" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H187" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6312,19 +6318,19 @@
         <v>95</v>
       </c>
       <c r="D188" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E188" t="s">
         <v>21</v>
       </c>
       <c r="F188" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G188" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H188" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6338,19 +6344,19 @@
         <v>17</v>
       </c>
       <c r="D189" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E189" t="s">
         <v>21</v>
       </c>
       <c r="F189" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G189" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H189" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6361,22 +6367,22 @@
         <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D190" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E190" t="s">
         <v>21</v>
       </c>
       <c r="F190" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G190" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H190" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6390,19 +6396,19 @@
         <v>42</v>
       </c>
       <c r="D191" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E191" t="s">
         <v>21</v>
       </c>
       <c r="F191" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G191" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H191" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6416,19 +6422,19 @@
         <v>96</v>
       </c>
       <c r="D192" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E192" t="s">
         <v>21</v>
       </c>
       <c r="F192" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G192" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H192" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6442,19 +6448,19 @@
         <v>95</v>
       </c>
       <c r="D193" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E193" t="s">
         <v>21</v>
       </c>
       <c r="F193" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G193" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H193" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6465,22 +6471,22 @@
         <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D194" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E194" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F194" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G194" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H194" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6491,22 +6497,22 @@
         <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D195" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E195" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F195" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G195" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H195" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6517,22 +6523,22 @@
         <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D196" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E196" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F196" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G196" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H196" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6543,22 +6549,22 @@
         <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D197" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E197" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F197" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G197" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H197" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6569,22 +6575,22 @@
         <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D198" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E198" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F198" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G198" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H198" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6598,19 +6604,19 @@
         <v>99</v>
       </c>
       <c r="D199" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E199" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F199" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G199" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H199" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6621,22 +6627,22 @@
         <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D200" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E200" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F200" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G200" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H200" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6650,19 +6656,19 @@
         <v>23</v>
       </c>
       <c r="D201" t="s">
-        <v>273</v>
+        <v>176</v>
       </c>
       <c r="E201" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F201" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G201" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H201" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6676,19 +6682,19 @@
         <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E202" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F202" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G202" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H202" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6702,19 +6708,19 @@
         <v>100</v>
       </c>
       <c r="D203" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E203" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F203" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G203" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H203" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6728,19 +6734,19 @@
         <v>70</v>
       </c>
       <c r="D204" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E204" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F204" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G204" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H204" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6754,19 +6760,19 @@
         <v>101</v>
       </c>
       <c r="D205" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E205" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F205" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G205" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H205" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6780,19 +6786,19 @@
         <v>102</v>
       </c>
       <c r="D206" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E206" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F206" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G206" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H206" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6803,22 +6809,22 @@
         <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D207" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E207" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F207" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G207" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H207" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6829,22 +6835,22 @@
         <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D208" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E208" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F208" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G208" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H208" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6858,19 +6864,19 @@
         <v>38</v>
       </c>
       <c r="D209" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E209" t="s">
         <v>18</v>
       </c>
       <c r="F209" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G209" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H209" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6881,22 +6887,22 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D210" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E210" t="s">
         <v>18</v>
       </c>
       <c r="F210" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G210" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H210" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6910,19 +6916,19 @@
         <v>40</v>
       </c>
       <c r="D211" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E211" t="s">
         <v>18</v>
       </c>
       <c r="F211" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G211" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H211" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6936,19 +6942,19 @@
         <v>18</v>
       </c>
       <c r="D212" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E212" t="s">
         <v>18</v>
       </c>
       <c r="F212" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G212" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H212" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6959,22 +6965,22 @@
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D213" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E213" t="s">
         <v>18</v>
       </c>
       <c r="F213" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G213" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H213" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6985,22 +6991,22 @@
         <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D214" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E214" t="s">
         <v>18</v>
       </c>
       <c r="F214" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G214" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H214" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7011,22 +7017,22 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D215" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E215" t="s">
         <v>18</v>
       </c>
       <c r="F215" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G215" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H215" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7037,22 +7043,22 @@
         <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D216" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E216" t="s">
         <v>18</v>
       </c>
       <c r="F216" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G216" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H216" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7063,22 +7069,22 @@
         <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D217" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E217" t="s">
         <v>18</v>
       </c>
       <c r="F217" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G217" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H217" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7089,22 +7095,22 @@
         <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D218" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E218" t="s">
         <v>18</v>
       </c>
       <c r="F218" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G218" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H218" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7115,22 +7121,22 @@
         <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D219" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E219" t="s">
         <v>18</v>
       </c>
       <c r="F219" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G219" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H219" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7141,22 +7147,22 @@
         <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D220" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E220" t="s">
         <v>18</v>
       </c>
       <c r="F220" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G220" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H220" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7167,22 +7173,22 @@
         <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D221" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E221" t="s">
         <v>18</v>
       </c>
       <c r="F221" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G221" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H221" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7193,22 +7199,22 @@
         <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D222" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E222" t="s">
         <v>18</v>
       </c>
       <c r="F222" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G222" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H222" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7219,22 +7225,22 @@
         <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D223" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E223" t="s">
         <v>18</v>
       </c>
       <c r="F223" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G223" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H223" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7245,22 +7251,22 @@
         <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D224" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E224" t="s">
         <v>18</v>
       </c>
       <c r="F224" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G224" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H224" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7271,22 +7277,22 @@
         <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D225" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E225" t="s">
         <v>18</v>
       </c>
       <c r="F225" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G225" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H225" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
